--- a/TABULAR/FLOOD_PREDICTION/fp_experiments.xlsx
+++ b/TABULAR/FLOOD_PREDICTION/fp_experiments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>CV(R2)</t>
   </si>
@@ -56,7 +56,7 @@
     <t>With one hot encoding of all features</t>
   </si>
   <si>
-    <t>With openfe 10 new features</t>
+    <t>With StandardScaler and OneHotEncoding of all features</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
   <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -463,6 +463,21 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.84557584926398699</v>
+      </c>
+      <c r="C6">
+        <v>0.845574034063311</v>
+      </c>
+      <c r="D6">
+        <v>6.4399576308910695E-4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>

--- a/TABULAR/FLOOD_PREDICTION/fp_experiments.xlsx
+++ b/TABULAR/FLOOD_PREDICTION/fp_experiments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>CV(R2)</t>
   </si>
@@ -57,6 +57,36 @@
   </si>
   <si>
     <t>With StandardScaler and OneHotEncoding of all features</t>
+  </si>
+  <si>
+    <t>With OneHotEncoder followed by StandardScaler</t>
+  </si>
+  <si>
+    <t>With StandardScaler followed by PolynomialFeatures</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Ridge</t>
+  </si>
+  <si>
+    <t>All initial features + special1, standardscaler on all</t>
+  </si>
+  <si>
+    <t>Only f_sum and special1, with standardscaler on f_sum</t>
+  </si>
+  <si>
+    <t>Only f_sum and special1, with OneHotEncoder on f_sum</t>
+  </si>
+  <si>
+    <t>Only f_sum and special1, with StandardScaler followed by OneHotEncoder on f_sum</t>
+  </si>
+  <si>
+    <t>f_sum, special1, f_mean, f_std, f_min, f_max with StandardScaler followed by OneHotEncoder on f_sum</t>
+  </si>
+  <si>
+    <t>All initial features + f_sum, special1, f_mean, f_std, f_min, f_max with StandardScaler on all followed by OneHotEncoder on f_sum</t>
   </si>
 </sst>
 </file>
@@ -374,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F6"/>
+  <dimension ref="A2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -385,7 +415,7 @@
     <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -399,13 +429,16 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -419,10 +452,13 @@
         <v>6.8443196177225504E-4</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -436,13 +472,16 @@
         <v>6.8443225351628599E-4</v>
       </c>
       <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -456,13 +495,16 @@
         <v>6.4049262593829099E-4</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -476,10 +518,176 @@
         <v>6.4399576308910695E-4</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.84557584926398699</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.84549486397770901</v>
+      </c>
+      <c r="C8">
+        <v>0.84549307867438805</v>
+      </c>
+      <c r="D8">
+        <v>6.6038176420046802E-4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.85132650151207501</v>
+      </c>
+      <c r="C9">
+        <v>0.85132637140533596</v>
+      </c>
+      <c r="D9">
+        <v>2.3378038726215E-4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.85131884373550204</v>
+      </c>
+      <c r="C10">
+        <v>0.85131871103789503</v>
+      </c>
+      <c r="D10">
+        <v>2.36365315919991E-4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.86574442791551398</v>
+      </c>
+      <c r="C11">
+        <v>0.86574442791551398</v>
+      </c>
+      <c r="D11">
+        <v>1.8185907653173099E-4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.86578384174275302</v>
+      </c>
+      <c r="C12">
+        <v>0.86578384174275302</v>
+      </c>
+      <c r="D12">
+        <v>1.9579708733441701E-4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.86587947473791005</v>
+      </c>
+      <c r="C13">
+        <v>0.86587918915017903</v>
+      </c>
+      <c r="D13">
+        <v>2.0366617726051399E-4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>0.86588574352807901</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/TABULAR/FLOOD_PREDICTION/fp_experiments.xlsx
+++ b/TABULAR/FLOOD_PREDICTION/fp_experiments.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LinReg_Exp" sheetId="1" r:id="rId1"/>
+    <sheet name="All Models" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>CV(R2)</t>
   </si>
@@ -53,12 +54,6 @@
     <t>Regularization doesn't help</t>
   </si>
   <si>
-    <t>With one hot encoding of all features</t>
-  </si>
-  <si>
-    <t>With StandardScaler and OneHotEncoding of all features</t>
-  </si>
-  <si>
     <t>With OneHotEncoder followed by StandardScaler</t>
   </si>
   <si>
@@ -71,22 +66,91 @@
     <t>Ridge</t>
   </si>
   <si>
-    <t>All initial features + special1, standardscaler on all</t>
-  </si>
-  <si>
-    <t>Only f_sum and special1, with standardscaler on f_sum</t>
-  </si>
-  <si>
-    <t>Only f_sum and special1, with OneHotEncoder on f_sum</t>
-  </si>
-  <si>
-    <t>Only f_sum and special1, with StandardScaler followed by OneHotEncoder on f_sum</t>
-  </si>
-  <si>
-    <t>f_sum, special1, f_mean, f_std, f_min, f_max with StandardScaler followed by OneHotEncoder on f_sum</t>
-  </si>
-  <si>
-    <t>All initial features + f_sum, special1, f_mean, f_std, f_min, f_max with StandardScaler on all followed by OneHotEncoder on f_sum</t>
+    <t xml:space="preserve">f_sum, special1, f_mean, f_std, f_min, f_max </t>
+  </si>
+  <si>
+    <t>Features used</t>
+  </si>
+  <si>
+    <t>Preprocessing</t>
+  </si>
+  <si>
+    <t>All initial features</t>
+  </si>
+  <si>
+    <t>OneHotEncoder on all features</t>
+  </si>
+  <si>
+    <t>StandardScaler followed by OneHotEncoder on all features</t>
+  </si>
+  <si>
+    <t>All initial features plus polynominal features</t>
+  </si>
+  <si>
+    <t>All initial features + special1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> standardscaler on all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only f_sum and special1 </t>
+  </si>
+  <si>
+    <t>standardscaler on f_sum</t>
+  </si>
+  <si>
+    <t>OneHotEncoder on f_sum</t>
+  </si>
+  <si>
+    <t>StandardScaler followed by OneHotEncoder on f_sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All initial features + f_sum, special1, f_mean, f_std, f_min, f_max </t>
+  </si>
+  <si>
+    <t>with StandardScaler on all followed by OneHotEncoder on f_sum</t>
+  </si>
+  <si>
+    <t>All initial features + all summary statistics features (sum, mean, std, min, max, skew, kurtosis, quantiles) f_sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with StandardScaler on all followed by OneHotEncoder on </t>
+  </si>
+  <si>
+    <t>All initial features + all summary statistics features (sum, mean, std, min, max, skew, kurtosis, quantiles) + polynominal features degree 2</t>
+  </si>
+  <si>
+    <t>PolynomialFeatures on initial features + summary stats features followed by StandardScaler on initial + summary stats followed by OneHotEncoder on f_sum</t>
+  </si>
+  <si>
+    <t>Fold 0</t>
+  </si>
+  <si>
+    <t>Fold 1</t>
+  </si>
+  <si>
+    <t>Fold 2</t>
+  </si>
+  <si>
+    <t>Fold 3</t>
+  </si>
+  <si>
+    <t>Fold 4</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>CatBoost</t>
   </si>
 </sst>
 </file>
@@ -404,18 +468,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G14"/>
+  <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
     <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.1796875" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -429,16 +496,22 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -452,13 +525,19 @@
         <v>6.8443196177225504E-4</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -472,16 +551,22 @@
         <v>6.8443225351628599E-4</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
       </c>
       <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -495,16 +580,19 @@
         <v>6.4049262593829099E-4</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -518,16 +606,19 @@
         <v>6.4399576308910695E-4</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -535,16 +626,19 @@
         <v>0.84557584926398699</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -558,16 +652,19 @@
         <v>6.6038176420046802E-4</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -581,16 +678,19 @@
         <v>2.3378038726215E-4</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -604,16 +704,19 @@
         <v>2.36365315919991E-4</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -627,16 +730,19 @@
         <v>1.8185907653173099E-4</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -650,16 +756,19 @@
         <v>1.9579708733441701E-4</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -673,25 +782,162 @@
         <v>2.0366617726051399E-4</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14">
         <v>0.86588574352807901</v>
       </c>
+      <c r="C14">
+        <v>0.86588574352807901</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.86592424648514799</v>
+      </c>
+      <c r="C15">
+        <v>0.86592395054210503</v>
+      </c>
+      <c r="D15">
+        <v>2.03496610893043E-4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.86628774725077395</v>
+      </c>
+      <c r="C16">
+        <v>0.86628738190213905</v>
+      </c>
+      <c r="D16">
+        <v>2.2850176977859001E-4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="13" max="13" width="12.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TABULAR/FLOOD_PREDICTION/fp_experiments.xlsx
+++ b/TABULAR/FLOOD_PREDICTION/fp_experiments.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t>CV(R2)</t>
   </si>
@@ -151,6 +151,21 @@
   </si>
   <si>
     <t>CatBoost</t>
+  </si>
+  <si>
+    <t>All initial features + summary stats features</t>
+  </si>
+  <si>
+    <t>params = {'learning_rate': 0.056355732882949705, 'n_estimators': 3450, 'max_depth': 13, 'min_data_in_leaf': 19, 'subsample': 0.8459183492748035, 'num_leaves': 256, 'reg_lambda': 34.31110068325553, 'random_strength': 0.6291372670472564, 'early_stopping_rounds': 110, 'max_bin': 92}</t>
+  </si>
+  <si>
+    <t>StandardScaler on all features followed by OneHotEncoder on f_sum</t>
+  </si>
+  <si>
+    <t>params = {'learning_rate': 0.006369775280726034, 'n_estimators': 2350, 'max_depth': 8, 'min_data_in_leaf': 87, 'subsample': 0.5208710614689455, 'num_leaves': 124, 'reg_lambda': 20.787555675145896, 'random_strength': 4.176445595994663, 'early_stopping_rounds': 290, 'max_bin': 245}</t>
+  </si>
+  <si>
+    <t>All initial features + summary stats features + sorted features + polynomial features degree 2</t>
   </si>
 </sst>
 </file>
@@ -471,7 +486,7 @@
   <dimension ref="A2:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -877,10 +892,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N3"/>
+  <dimension ref="A2:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -936,8 +951,70 @@
       <c r="B3" t="s">
         <v>41</v>
       </c>
+      <c r="C3">
+        <v>0.86702417566507295</v>
+      </c>
+      <c r="H3">
+        <v>0.86702417566507295</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>0.86915104474440597</v>
+      </c>
+      <c r="H4">
+        <v>0.86915104474440597</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>0.86913418608881499</v>
+      </c>
+      <c r="H5">
+        <v>0.86913418608881499</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TABULAR/FLOOD_PREDICTION/fp_experiments.xlsx
+++ b/TABULAR/FLOOD_PREDICTION/fp_experiments.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
   <si>
     <t>CV(R2)</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>All initial features + summary stats features + sorted features + polynomial features degree 2</t>
+  </si>
+  <si>
+    <t>All initial features + summary stats features + sorted features</t>
   </si>
 </sst>
 </file>
@@ -892,10 +895,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N5"/>
+  <dimension ref="A2:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1013,6 +1016,29 @@
         <v>44</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>0.86934466561183499</v>
+      </c>
+      <c r="H6">
+        <v>0.86934466561183499</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TABULAR/FLOOD_PREDICTION/fp_experiments.xlsx
+++ b/TABULAR/FLOOD_PREDICTION/fp_experiments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="LinReg_Exp" sheetId="1" r:id="rId1"/>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -897,7 +897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>

--- a/TABULAR/FLOOD_PREDICTION/fp_experiments.xlsx
+++ b/TABULAR/FLOOD_PREDICTION/fp_experiments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LinReg_Exp" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
   <si>
     <t>CV(R2)</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>All initial features + summary stats features + sorted features</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>params = {'n_estimators': 2400, 'learning_rate': 0.07031925162551024, 'max_depth': 13, 'min_child_weight': 10, 'gamma': 0.0011292149775809328, 'subsample': 0.784398441831788, 'colsample_bytree': 0.6398482258090635, 'reg_alpha': 0.4591612522538989, 'reg_lambda': 8.756451664971895, 'early_stopping_rounds': 420}</t>
+  </si>
+  <si>
+    <t>Public LB</t>
   </si>
 </sst>
 </file>
@@ -488,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -895,18 +904,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N6"/>
+  <dimension ref="A2:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="13" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -929,25 +938,28 @@
         <v>37</v>
       </c>
       <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>40</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -960,17 +972,17 @@
       <c r="H3">
         <v>0.86702417566507295</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>43</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>42</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -983,17 +995,17 @@
       <c r="H4">
         <v>0.86915104474440597</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>45</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>42</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1006,17 +1018,17 @@
       <c r="H5">
         <v>0.86913418608881499</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>45</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>46</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1029,13 +1041,54 @@
       <c r="H6">
         <v>0.86934466561183499</v>
       </c>
-      <c r="K6" t="s">
+      <c r="I6">
+        <v>0.86922999999999995</v>
+      </c>
+      <c r="L6" t="s">
         <v>45</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>47</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>0.86884248165892497</v>
+      </c>
+      <c r="D7">
+        <v>0.86919200649412498</v>
+      </c>
+      <c r="E7">
+        <v>0.86869617404000399</v>
+      </c>
+      <c r="F7">
+        <v>0.86868766718732404</v>
+      </c>
+      <c r="G7">
+        <v>0.86912768548039299</v>
+      </c>
+      <c r="H7">
+        <v>0.868909513371521</v>
+      </c>
+      <c r="I7">
+        <v>0.85636999999999996</v>
+      </c>
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" t="s">
         <v>44</v>
       </c>
     </row>
